--- a/Cmedicine_class_app.xlsx
+++ b/Cmedicine_class_app.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\PythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB3F907-5CD4-48EB-813D-3B373937C920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E01710-8A2B-41C7-87A9-F3DFCE8F8558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5568" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>filename</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>1.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,13 +167,16 @@
   </si>
   <si>
     <t>10.jpg</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -210,6 +210,12 @@
     <font>
       <sz val="16"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7D353B"/>
+      <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -248,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -263,6 +269,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,7 +614,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -620,8 +629,8 @@
       <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -629,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -637,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -645,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -653,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -661,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -677,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -701,11 +710,12 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Cmedicine_class_app.xlsx
+++ b/Cmedicine_class_app.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\PythonProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E01710-8A2B-41C7-87A9-F3DFCE8F8558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD282A28-5FC5-4DF9-93A8-8B1FF42E0612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5568" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <r>
       <rPr>
@@ -169,7 +169,143 @@
     <t>10.jpg</t>
   </si>
   <si>
-    <t>category</t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1A1C28"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>麥門冬</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1A1C28"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>知母</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>石斛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>女貞子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>巴戟天</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>淫羊藿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>杜仲</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>鎖陽</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>附子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>吳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>茱萸</t>
+    </r>
+  </si>
+  <si>
+    <t>11.jpg</t>
+  </si>
+  <si>
+    <t>12.jpg</t>
+  </si>
+  <si>
+    <t>13.jpg</t>
+  </si>
+  <si>
+    <t>14.jpg</t>
+  </si>
+  <si>
+    <t>15.jpg</t>
+  </si>
+  <si>
+    <t>16.jpg</t>
+  </si>
+  <si>
+    <t>17.jpg</t>
+  </si>
+  <si>
+    <t>18.jpg</t>
+  </si>
+  <si>
+    <t>19.jpg</t>
+  </si>
+  <si>
+    <t>20.jpg</t>
   </si>
 </sst>
 </file>
@@ -213,10 +349,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF7D353B"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
+      <sz val="16"/>
+      <name val="SimSun"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -269,9 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,15 +742,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -629,9 +761,7 @@
       <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -713,9 +843,88 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Cmedicine_class_app.xlsx
+++ b/Cmedicine_class_app.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\PythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD282A28-5FC5-4DF9-93A8-8B1FF42E0612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB8D021-84A1-4079-9995-D17A0A2A6E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.jpg</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <t>5.jpg</t>
+  </si>
+  <si>
+    <t>6.jpg</t>
+  </si>
+  <si>
+    <t>7.jpg</t>
+  </si>
+  <si>
+    <t>8.jpg</t>
+  </si>
+  <si>
+    <t>9.jpg</t>
+  </si>
+  <si>
+    <t>10.jpg</t>
+  </si>
+  <si>
+    <t>11.jpg</t>
+  </si>
+  <si>
+    <t>12.jpg</t>
+  </si>
+  <si>
+    <t>13.jpg</t>
+  </si>
+  <si>
+    <t>14.jpg</t>
+  </si>
+  <si>
+    <t>15.jpg</t>
+  </si>
+  <si>
+    <t>16.jpg</t>
+  </si>
+  <si>
+    <t>17.jpg</t>
+  </si>
+  <si>
+    <t>18.jpg</t>
+  </si>
+  <si>
+    <t>19.jpg</t>
+  </si>
+  <si>
+    <t>20.jpg</t>
+  </si>
+  <si>
+    <t>21.jpg</t>
+  </si>
+  <si>
+    <t>22.jpg</t>
+  </si>
+  <si>
+    <t>23.jpg</t>
+  </si>
+  <si>
+    <t>24.jpg</t>
+  </si>
+  <si>
+    <t>25.jpg</t>
+  </si>
+  <si>
+    <t>26.jpg</t>
+  </si>
+  <si>
+    <t>27.jpg</t>
+  </si>
+  <si>
+    <t>28.jpg</t>
+  </si>
+  <si>
+    <t>29.jpg</t>
+  </si>
+  <si>
+    <t>30.jpg</t>
+  </si>
+  <si>
+    <t>細辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香附</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枳實</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉤藤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸棗仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏子仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color rgb="FF1A1C28"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
       </rPr>
       <t>人參</t>
     </r>
@@ -37,8 +176,9 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF1A1C28"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
       </rPr>
       <t>黨參</t>
     </r>
@@ -48,8 +188,9 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF1A1C28"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
       </rPr>
       <t>黃耆</t>
     </r>
@@ -59,8 +200,9 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF1A1C28"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
       </rPr>
       <t>山藥</t>
     </r>
@@ -70,8 +212,9 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF1A1C28"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
       </rPr>
       <t>大棗</t>
     </r>
@@ -81,29 +224,24 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF1A1C28"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
       </rPr>
       <t>甘草</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>當歸</t>
-    </r>
+    <t>當歸</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color rgb="FF1A1C28"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
       </rPr>
       <t>地黃</t>
     </r>
@@ -113,8 +251,9 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF1A1C28"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
       </rPr>
       <t>白芍</t>
     </r>
@@ -124,57 +263,21 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF1A1C28"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
       </rPr>
       <t>枸杞子</t>
     </r>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>1.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.jpg</t>
-  </si>
-  <si>
-    <t>4.jpg</t>
-  </si>
-  <si>
-    <t>5.jpg</t>
-  </si>
-  <si>
-    <t>6.jpg</t>
-  </si>
-  <si>
-    <t>7.jpg</t>
-  </si>
-  <si>
-    <t>8.jpg</t>
-  </si>
-  <si>
-    <t>9.jpg</t>
-  </si>
-  <si>
-    <t>10.jpg</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color rgb="FF1A1C28"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
       </rPr>
       <t>麥門冬</t>
     </r>
@@ -184,128 +287,184 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF1A1C28"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
       </rPr>
       <t>知母</t>
     </r>
   </si>
   <si>
+    <t>石斛</t>
+  </si>
+  <si>
+    <t>女貞子</t>
+  </si>
+  <si>
+    <t>巴戟天</t>
+  </si>
+  <si>
+    <t>淫羊藿</t>
+  </si>
+  <si>
+    <t>杜仲</t>
+  </si>
+  <si>
+    <t>鎖陽</t>
+  </si>
+  <si>
+    <t>附子</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
       </rPr>
-      <t>石斛</t>
+      <t>吳茱萸</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>女貞子</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>巴戟天</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>淫羊藿</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>杜仲</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>鎖陽</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>附子</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>吳</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="MS PGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>茱萸</t>
-    </r>
-  </si>
-  <si>
-    <t>11.jpg</t>
-  </si>
-  <si>
-    <t>12.jpg</t>
-  </si>
-  <si>
-    <t>13.jpg</t>
-  </si>
-  <si>
-    <t>14.jpg</t>
-  </si>
-  <si>
-    <t>15.jpg</t>
-  </si>
-  <si>
-    <t>16.jpg</t>
-  </si>
-  <si>
-    <t>17.jpg</t>
-  </si>
-  <si>
-    <t>18.jpg</t>
-  </si>
-  <si>
-    <t>19.jpg</t>
-  </si>
-  <si>
-    <t>20.jpg</t>
+    <t>31.jpg</t>
+  </si>
+  <si>
+    <t>32.jpg</t>
+  </si>
+  <si>
+    <t>33.jpg</t>
+  </si>
+  <si>
+    <t>34.jpg</t>
+  </si>
+  <si>
+    <t>35.jpg</t>
+  </si>
+  <si>
+    <t>36.jpg</t>
+  </si>
+  <si>
+    <t>37.jpg</t>
+  </si>
+  <si>
+    <t>38.jpg</t>
+  </si>
+  <si>
+    <t>39.jpg</t>
+  </si>
+  <si>
+    <t>40.jpg</t>
+  </si>
+  <si>
+    <t>芡實</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五味子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山茱萸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻黃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛夷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白芷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羌活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防風</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒼耳子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荊芥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.jpg</t>
+  </si>
+  <si>
+    <t>42.jpg</t>
+  </si>
+  <si>
+    <t>43.jpg</t>
+  </si>
+  <si>
+    <t>44.jpg</t>
+  </si>
+  <si>
+    <t>45.jpg</t>
+  </si>
+  <si>
+    <t>46.jpg</t>
+  </si>
+  <si>
+    <t>47.jpg</t>
+  </si>
+  <si>
+    <t>48.jpg</t>
+  </si>
+  <si>
+    <t>49.jpg</t>
+  </si>
+  <si>
+    <t>50.jpg</t>
+  </si>
+  <si>
+    <t>紫蘇葉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴胡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貝母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桔梗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋復花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -327,30 +486,36 @@
     </font>
     <font>
       <sz val="16"/>
-      <name val="MS PGothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF1A1C28"/>
-      <name val="MS PGothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="16"/>
-      <name val="MS PGothic"/>
-      <family val="2"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="16"/>
-      <name val="SimSun"/>
+      <color rgb="FF1A1C28"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,21 +553,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,189 +916,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="22" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
+    </row>
+    <row r="32" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Cmedicine_class_app.xlsx
+++ b/Cmedicine_class_app.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\PythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB8D021-84A1-4079-9995-D17A0A2A6E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D24DF1-7C0E-49FB-9D92-A75328D9698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>name</t>
   </si>
@@ -466,12 +466,361 @@
     <t>杏仁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>51.jpg</t>
+  </si>
+  <si>
+    <t>52.jpg</t>
+  </si>
+  <si>
+    <t>53.jpg</t>
+  </si>
+  <si>
+    <t>54.jpg</t>
+  </si>
+  <si>
+    <t>55.jpg</t>
+  </si>
+  <si>
+    <t>56.jpg</t>
+  </si>
+  <si>
+    <t>57.jpg</t>
+  </si>
+  <si>
+    <t>58.jpg</t>
+  </si>
+  <si>
+    <t>59.jpg</t>
+  </si>
+  <si>
+    <t>60.jpg</t>
+  </si>
+  <si>
+    <t>61.jpg</t>
+  </si>
+  <si>
+    <t>62.jpg</t>
+  </si>
+  <si>
+    <t>63.jpg</t>
+  </si>
+  <si>
+    <t>64.jpg</t>
+  </si>
+  <si>
+    <t>65.jpg</t>
+  </si>
+  <si>
+    <t>66.jpg</t>
+  </si>
+  <si>
+    <t>67.jpg</t>
+  </si>
+  <si>
+    <t>68.jpg</t>
+  </si>
+  <si>
+    <t>69.jpg</t>
+  </si>
+  <si>
+    <t>70.jpg</t>
+  </si>
+  <si>
+    <t>桑白皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枇杷葉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茯苓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白朮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車前子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澤瀉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚朴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒼朮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威靈仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑寄生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獨活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山楂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麥芽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大黃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘆薈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火麻仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹參</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71.jpg</t>
+  </si>
+  <si>
+    <t>72.jpg</t>
+  </si>
+  <si>
+    <t>73.jpg</t>
+  </si>
+  <si>
+    <t>74.jpg</t>
+  </si>
+  <si>
+    <t>75.jpg</t>
+  </si>
+  <si>
+    <t>76.jpg</t>
+  </si>
+  <si>
+    <t>77.jpg</t>
+  </si>
+  <si>
+    <t>78.jpg</t>
+  </si>
+  <si>
+    <t>79.jpg</t>
+  </si>
+  <si>
+    <t>80.jpg</t>
+  </si>
+  <si>
+    <t>紅花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延胡索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川芎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薑黃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益母草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛膝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水蛭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾葉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>側柏葉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81.jpg</t>
+  </si>
+  <si>
+    <t>82.jpg</t>
+  </si>
+  <si>
+    <t>83.jpg</t>
+  </si>
+  <si>
+    <t>84.jpg</t>
+  </si>
+  <si>
+    <t>85.jpg</t>
+  </si>
+  <si>
+    <t>86.jpg</t>
+  </si>
+  <si>
+    <t>87.jpg</t>
+  </si>
+  <si>
+    <t>88.jpg</t>
+  </si>
+  <si>
+    <t>89.jpg</t>
+  </si>
+  <si>
+    <t>90.jpg</t>
+  </si>
+  <si>
+    <t>91.jpg</t>
+  </si>
+  <si>
+    <t>92.jpg</t>
+  </si>
+  <si>
+    <t>93.jpg</t>
+  </si>
+  <si>
+    <t>94.jpg</t>
+  </si>
+  <si>
+    <t>95.jpg</t>
+  </si>
+  <si>
+    <t>96.jpg</t>
+  </si>
+  <si>
+    <t>97.jpg</t>
+  </si>
+  <si>
+    <t>98.jpg</t>
+  </si>
+  <si>
+    <t>99.jpg</t>
+  </si>
+  <si>
+    <t>100.jpg</t>
+  </si>
+  <si>
+    <t>三七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金銀花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連翹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲公英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敗醬草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏枯草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃連</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃岑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃柏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍膽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦參</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄參</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牡丹皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤芍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蒿</t>
+  </si>
+  <si>
+    <t>蛇床子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檳榔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -508,6 +857,13 @@
       <color rgb="FF000000"/>
       <name val="標楷體"/>
       <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="3"/>
       <charset val="136"/>
     </font>
     <font>
@@ -553,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -573,6 +929,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -916,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1337,6 +1696,406 @@
         <v>91</v>
       </c>
     </row>
+    <row r="52" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
